--- a/va_facility_data_2025-02-20/Wm. Jennings Bryan Dorn Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Wm.%20Jennings%20Bryan%20Dorn%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wm. Jennings Bryan Dorn Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Wm.%20Jennings%20Bryan%20Dorn%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Ra3333d098f3c4e6aa8525c005556179e"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Re37668df4b564758a914e877667b69d0"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re9d4072092a04790ab2b05afb983cf48"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R1f0ce78baf434654b4476a9483772190"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R3e103f11e8444bc7be63912eb093ef8e"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R4dda9be99cb74f008ce63d150481598b"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R184b5fb1efa842179300b4c4edfe45dd"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R1b4f14f5c03f4b25bb95487eede179fc"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4148c57a5ee04da1a9d1abcbfe0996c7"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rf20102b1ccc145e7afb65c50961215f1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R78411b6dd44c49919feb1fd3d820bea5"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3b934ce29f6a46839cf42bf06ff4bf33"/>
   </x:sheets>
 </x:workbook>
 </file>
